--- a/Trabajo/results/branch-30.xlsx
+++ b/Trabajo/results/branch-30.xlsx
@@ -563,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>1.237567826e+46</v>
+        <v>2.047200233e+45</v>
       </c>
       <c r="D4" s="3">
         <v>1.308599303e+19</v>
@@ -583,7 +583,7 @@
         <v>29892.330254902</v>
       </c>
       <c r="C5" s="3">
-        <v>128404.18</v>
+        <v>109862.141</v>
       </c>
       <c r="D5" s="3">
         <v>3481.0788823529</v>
@@ -603,7 +603,7 @@
         <v>201.821947451</v>
       </c>
       <c r="C6" s="3">
-        <v>22711.906</v>
+        <v>21973.935</v>
       </c>
       <c r="D6" s="3">
         <v>84.30386294119999</v>
@@ -623,7 +623,7 @@
         <v>249.6142507843</v>
       </c>
       <c r="C7" s="3">
-        <v>445.54564</v>
+        <v>440.63019</v>
       </c>
       <c r="D7" s="2">
         <v>201.4980607843</v>
@@ -643,7 +643,7 @@
         <v>68.9419696471</v>
       </c>
       <c r="C8" s="3">
-        <v>78.37628599999999</v>
+        <v>76.19047399999999</v>
       </c>
       <c r="D8" s="2">
         <v>6.3202614647</v>
@@ -663,7 +663,7 @@
         <v>529.0749282353</v>
       </c>
       <c r="C9" s="3">
-        <v>2521.6714</v>
+        <v>2486.1433</v>
       </c>
       <c r="D9" s="2">
         <v>233.4221882353</v>
@@ -683,7 +683,7 @@
         <v>189.3701482353</v>
       </c>
       <c r="C10" s="3">
-        <v>322.60895</v>
+        <v>369.07993</v>
       </c>
       <c r="D10" s="3">
         <v>189.3719607843</v>
@@ -703,7 +703,7 @@
         <v>5918.5534666667</v>
       </c>
       <c r="C11" s="3">
-        <v>10728.0165</v>
+        <v>10776.1331</v>
       </c>
       <c r="D11" s="2">
         <v>65.2973029608</v>
@@ -723,7 +723,7 @@
         <v>6042.3757784314</v>
       </c>
       <c r="C12" s="3">
-        <v>4106.0871</v>
+        <v>4096.3327</v>
       </c>
       <c r="D12" s="2">
         <v>3763.561372549</v>
@@ -743,7 +743,7 @@
         <v>398.0148978431</v>
       </c>
       <c r="C13" s="3">
-        <v>9515.618399999999</v>
+        <v>6694.9582</v>
       </c>
       <c r="D13" s="2">
         <v>79.5827970588</v>
@@ -803,7 +803,7 @@
         <v>17969.2468445098</v>
       </c>
       <c r="C16" s="3">
-        <v>226161.293</v>
+        <v>137912.251</v>
       </c>
       <c r="D16" s="2">
         <v>71.0022382353</v>
@@ -823,7 +823,7 @@
         <v>61639.2648294118</v>
       </c>
       <c r="C17" s="3">
-        <v>498613406.917</v>
+        <v>498613306.088</v>
       </c>
       <c r="D17" s="2">
         <v>62.5567343137</v>
@@ -843,7 +843,7 @@
         <v>2007.7714196078</v>
       </c>
       <c r="C18" s="3">
-        <v>2207.9363</v>
+        <v>2187.9945</v>
       </c>
       <c r="D18" s="2">
         <v>1319.2334901961</v>
@@ -863,7 +863,7 @@
         <v>822.3996780392</v>
       </c>
       <c r="C19" s="3">
-        <v>1115.3715</v>
+        <v>919.12046</v>
       </c>
       <c r="D19" s="3">
         <v>480.8806464706</v>
@@ -883,7 +883,7 @@
         <v>310964.701019608</v>
       </c>
       <c r="C20" s="3">
-        <v>5122547.07</v>
+        <v>2280712.096</v>
       </c>
       <c r="D20" s="2">
         <v>61.2224523529</v>
@@ -923,7 +923,7 @@
         <v>720.7965280392</v>
       </c>
       <c r="C22" s="3">
-        <v>844.2806</v>
+        <v>858.95321</v>
       </c>
       <c r="D22" s="2">
         <v>275.1128247059</v>
@@ -943,7 +943,7 @@
         <v>447.7568772549</v>
       </c>
       <c r="C23" s="3">
-        <v>551.72763</v>
+        <v>594.93834</v>
       </c>
       <c r="D23" s="2">
         <v>325.4940980392</v>
@@ -963,7 +963,7 @@
         <v>1987.1465217647</v>
       </c>
       <c r="C24" s="3">
-        <v>4869.4505</v>
+        <v>4640.792</v>
       </c>
       <c r="D24" s="2">
         <v>100.2234960784</v>
@@ -983,7 +983,7 @@
         <v>840.9894833333</v>
       </c>
       <c r="C25" s="3">
-        <v>1324.5649</v>
+        <v>1277.3193</v>
       </c>
       <c r="D25" s="2">
         <v>534.6091764706</v>
@@ -1003,7 +1003,7 @@
         <v>878.78126</v>
       </c>
       <c r="C26" s="3">
-        <v>1201.1292</v>
+        <v>1140.76412</v>
       </c>
       <c r="D26" s="2">
         <v>605.9018411765001</v>
@@ -1023,7 +1023,7 @@
         <v>505.5116776471</v>
       </c>
       <c r="C27" s="3">
-        <v>6959.1561</v>
+        <v>6589.9124</v>
       </c>
       <c r="D27" s="2">
         <v>387.027972549</v>
@@ -1043,7 +1043,7 @@
         <v>4529.0261901961</v>
       </c>
       <c r="C28" s="3">
-        <v>8579.341</v>
+        <v>8125.2022</v>
       </c>
       <c r="D28" s="2">
         <v>403.7672980392</v>
@@ -1063,7 +1063,7 @@
         <v>812.6841731373</v>
       </c>
       <c r="C29" s="3">
-        <v>1760.9345</v>
+        <v>1550.277</v>
       </c>
       <c r="D29" s="2">
         <v>492.5197803922</v>
@@ -1083,7 +1083,7 @@
         <v>554.6830056863</v>
       </c>
       <c r="C30" s="3">
-        <v>5328.2912</v>
+        <v>5035.7233</v>
       </c>
       <c r="D30" s="2">
         <v>394.2695647059</v>
@@ -1103,7 +1103,7 @@
         <v>2088.1168627451</v>
       </c>
       <c r="C31" s="3">
-        <v>2659.0508</v>
+        <v>2593.4862</v>
       </c>
       <c r="D31" s="2">
         <v>1025.0945705882</v>
